--- a/biology/Zoologie/Argyrophis_trangensis/Argyrophis_trangensis.xlsx
+++ b/biology/Zoologie/Argyrophis_trangensis/Argyrophis_trangensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrophis trangensis est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrophis trangensis est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Trang en Thaïlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Trang en Thaïlande.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Taylor indique que le spécimen en sa possession mesure 155 mm dont 2,8 mm pour la queue. Son dos est bleu outremer et sa face ventrale blanc crème. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Taylor indique que le spécimen en sa possession mesure 155 mm dont 2,8 mm pour la queue. Son dos est bleu outremer et sa face ventrale blanc crème. 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de trang et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la province de Trang.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1962 : New oriental reptiles. University of Kansas science bulletin, vol. 43, no 7, p. 209-263 (texte intégral).</t>
         </is>
